--- a/output_data/charts/facilities-15-CountyRegion-M010000US001.xlsx
+++ b/output_data/charts/facilities-15-CountyRegion-M010000US001.xlsx
@@ -519,7 +519,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,13 +895,13 @@
                   <c:v>1090</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1418</c:v>
+                  <c:v>1420</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1990</c:v>
+                  <c:v>1993</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1501</c:v>
+                  <c:v>2127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="2">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>1501</v>
+        <v>2127</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
